--- a/EaselApps/Progress.xlsx
+++ b/EaselApps/Progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethank\Documents\GitHub\easel-apps\EaselApps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{721FD5ED-1FB0-43F5-815D-5961F46D394A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BFA97A-D0B8-4CB6-BB7C-F35C00E2AE54}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{F2171392-62D9-4E4B-BCE0-D6DECB6D13DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F2171392-62D9-4E4B-BCE0-D6DECB6D13DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
-  <si>
-    <t>Easel Apps</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
     <t>Depth Changer</t>
   </si>
@@ -50,9 +47,6 @@
     <t>Texture Generator</t>
   </si>
   <si>
-    <t>Join Paths</t>
-  </si>
-  <si>
     <t>Bezier Cone Generator</t>
   </si>
   <si>
@@ -74,15 +68,9 @@
     <t>Extract SubPath</t>
   </si>
   <si>
-    <t>Poly Art Generator</t>
-  </si>
-  <si>
     <t>Development</t>
   </si>
   <si>
-    <t>State</t>
-  </si>
-  <si>
     <t>Approved</t>
   </si>
   <si>
@@ -90,6 +78,156 @@
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>Halftone Generator</t>
+  </si>
+  <si>
+    <t>Modify Paths</t>
+  </si>
+  <si>
+    <t>Advanced Text</t>
+  </si>
+  <si>
+    <t>V-Carve Inlay V2</t>
+  </si>
+  <si>
+    <t>Triangulate Image</t>
+  </si>
+  <si>
+    <t>Convert to World Space</t>
+  </si>
+  <si>
+    <t>Better Offsets</t>
+  </si>
+  <si>
+    <t>Shape Gradient Generator - V2</t>
+  </si>
+  <si>
+    <t>Intersect All</t>
+  </si>
+  <si>
+    <t>Extract SubPath v2</t>
+  </si>
+  <si>
+    <t>Better Booleans</t>
+  </si>
+  <si>
+    <t>Image Raster</t>
+  </si>
+  <si>
+    <t>Scale About</t>
+  </si>
+  <si>
+    <t>Shape Gradient Generator</t>
+  </si>
+  <si>
+    <t>Rotate About</t>
+  </si>
+  <si>
+    <t>Super Gradient Generator</t>
+  </si>
+  <si>
+    <t>Move Shapes</t>
+  </si>
+  <si>
+    <t>Gradient Between Curves</t>
+  </si>
+  <si>
+    <t>https://easel.inventables.com/apps/249/edit</t>
+  </si>
+  <si>
+    <t>https://easel.inventables.com/apps/201/edit</t>
+  </si>
+  <si>
+    <t>https://easel.inventables.com/apps/273/edit</t>
+  </si>
+  <si>
+    <t>https://easel.inventables.com/apps/286/edit</t>
+  </si>
+  <si>
+    <t>https://easel.inventables.com/apps/272/edit</t>
+  </si>
+  <si>
+    <t>https://easel.inventables.com/apps/263/edit</t>
+  </si>
+  <si>
+    <t>https://easel.inventables.com/apps/251/edit</t>
+  </si>
+  <si>
+    <t>https://easel.inventables.com/apps/296/edit</t>
+  </si>
+  <si>
+    <t>https://easel.inventables.com/apps/250/edit</t>
+  </si>
+  <si>
+    <t>https://easel.inventables.com/apps/252/edit</t>
+  </si>
+  <si>
+    <t>https://easel.inventables.com/apps/275/edit</t>
+  </si>
+  <si>
+    <t>https://easel.inventables.com/apps/274/edit</t>
+  </si>
+  <si>
+    <t>https://easel.inventables.com/apps/254/edit</t>
+  </si>
+  <si>
+    <t>https://easel.inventables.com/apps/301/edit</t>
+  </si>
+  <si>
+    <t>https://easel.inventables.com/apps/288/edit</t>
+  </si>
+  <si>
+    <t>https://easel.inventables.com/apps/290/edit</t>
+  </si>
+  <si>
+    <t>https://easel.inventables.com/apps/292/edit</t>
+  </si>
+  <si>
+    <t>https://easel.inventables.com/apps/282/edit</t>
+  </si>
+  <si>
+    <t>https://easel.inventables.com/apps/256/edit</t>
+  </si>
+  <si>
+    <t>https://easel.inventables.com/apps/269/edit</t>
+  </si>
+  <si>
+    <t>https://easel.inventables.com/apps/261/edit</t>
+  </si>
+  <si>
+    <t>https://easel.inventables.com/apps/285/edit</t>
+  </si>
+  <si>
+    <t>https://easel.inventables.com/apps/287/edit</t>
+  </si>
+  <si>
+    <t>https://easel.inventables.com/apps/302/edit</t>
+  </si>
+  <si>
+    <t>https://easel.inventables.com/apps/280/edit</t>
+  </si>
+  <si>
+    <t>https://easel.inventables.com/apps/303/edit</t>
+  </si>
+  <si>
+    <t>https://easel.inventables.com/apps/293/edit</t>
+  </si>
+  <si>
+    <t>https://easel.inventables.com/apps/304/edit</t>
+  </si>
+  <si>
+    <t>https://easel.inventables.com/apps/291/edit</t>
+  </si>
+  <si>
+    <t>https://easel.inventables.com/apps/259/edit</t>
+  </si>
+  <si>
+    <t>TSP Art Generator</t>
+  </si>
+  <si>
+    <t>https://easel.inventables.com/apps/305/edit</t>
   </si>
 </sst>
 </file>
@@ -131,25 +269,571 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+  <dxfs count="81">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -463,146 +1147,571 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECD8FE5-6C06-4F5B-8AF1-D2F756F98684}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="B1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C31" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
+      <c r="D31" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"Approved"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"Denied"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Pending"</formula>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:D32">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
+      <formula>"Denied"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="78" operator="equal">
+      <formula>"Approved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="71" operator="equal">
+      <formula>"Denied"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="72" operator="equal">
+      <formula>"Approved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="cellIs" dxfId="59" priority="40" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="41" operator="equal">
+      <formula>"Denied"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="42" operator="equal">
+      <formula>"Approved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+      <formula>"Denied"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="57" operator="equal">
+      <formula>"Approved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
+      <formula>"Denied"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="48" operator="equal">
+      <formula>"Approved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
+      <formula>"Denied"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
+      <formula>"Approved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+      <formula>"Denied"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
+      <formula>"Approved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+      <formula>"Denied"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
+      <formula>"Approved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+      <formula>"Denied"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+      <formula>"Approved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>"Denied"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+      <formula>"Approved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+      <formula>"Denied"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+      <formula>"Approved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>"Denied"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+      <formula>"Approved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>"Denied"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+      <formula>"Approved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"Denied"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+      <formula>"Approved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"Denied"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+      <formula>"Approved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"Denied"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>"Approved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"Denied"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"Approved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Denied"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>"Approved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Denied"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"Approved"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
